--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Find the starting point of the loop. </t>
+          <t>Fractional Knapsack Problem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>129</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Count and Say problem</t>
+          <t>Longest subsequence such that difference between adjacent is one</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>52</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Find shortest safe route in a path with landmines</t>
+          <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>263</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Check if all leaf nodes are at same level or not</t>
+          <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>183</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>266</v>
+        <v>411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Print all permutations of a string </t>
+          <t>Count Balanced Binary Trees of Height h</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>266</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Merge 2 Binary Max Heaps</t>
+          <t>Flatten BST to sorted list</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Arithmetic Expression evaluation</t>
+          <t>Connect “n” ropes with minimum cost</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435</v>
+        <v>46</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maximum profit by buying and selling a share at most k times</t>
+          <t>Reverse a String</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>435</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maximum of all subarrays of size k.</t>
+          <t>Convert Binary tree into BST</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>312</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>342</v>
+        <v>235</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+          <t>Maximum sum of absolute difference of an array</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>342</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136</v>
+        <v>346</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Intersection Point of two Linked Lists.</t>
+          <t>Implement Prim’s Algorithm</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>136</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>find common elements In 3 sorted arrays</t>
+          <t>Print all "K" Sum paths in a Binary tree</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+          <t>Intersection Point of two Linked Lists.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+          <t>Power Set</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Find first and last positions of an element in a sorted array</t>
+          <t>K-th Element of Two Sorted Arrays</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fractional Knapsack Problem</t>
+          <t>Count number of bits to be flipped to convert A to B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>222</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>398</v>
+        <v>248</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Longest subsequence such that difference between adjacent is one</t>
+          <t>K Centers Problem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>398</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>425</v>
+        <v>170</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+          <t>Right View of Tree</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>425</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+          <t>Maximize The Cut Segments</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>306</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>411</v>
+        <v>21</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Count Balanced Binary Trees of Height h</t>
+          <t>Find factorial of a large number</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>411</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flatten BST to sorted list</t>
+          <t>Check if Binary tree is Sum tree or not</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Connect “n” ropes with minimum cost</t>
+          <t>Find longest coinsecutive subsequence</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>323</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>382</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Reverse a String</t>
+          <t>Program for nth Catalan Number</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>396</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Convert Binary tree into BST</t>
+          <t>Maximum Sum Increasing Subsequence</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>204</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>235</v>
+        <v>416</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maximum sum of absolute difference of an array</t>
+          <t>Largest Independent Set Problem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>235</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Implement Prim’s Algorithm</t>
+          <t>Mobile Numeric Keypad Problem [ IMP ]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>346</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Print all "K" Sum paths in a Binary tree</t>
+          <t>Balanced Parenthesis problem.[Imp]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>190</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136</v>
+        <v>393</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Intersection Point of two Linked Lists.</t>
+          <t>Longest Increasing Subsequence</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>136</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447</v>
+        <v>141</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Power Set</t>
+          <t>Split a Circular linked list into two halves.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>447</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>K-th Element of Two Sorted Arrays</t>
+          <t>Minimise the maximum difference between heights [V.IMP]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Replace every element with the least greater element on its right</t>
+          <t>Number of flips to make binary string alternate</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>212</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Find the first repeated word in string.</t>
+          <t>Trapping Rain water problem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Trie</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+          <t>Given a sequence of words, print all anagrams together</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>166</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kth Ancestor of node in a Binary tree</t>
+          <t>Find Kth smallest element in a BST</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Find the maximum and minimum element in an array</t>
+          <t>Quicksort for Linked Lists.[Very Important]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Find the Union and Intersection of the two sorted arrays.</t>
+          <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>368</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Count and Say problem</t>
+          <t>Chinese Postman or Route Inspection</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Remove Duplicates in a sorted Linked List.</t>
+          <t>Implement "n" queue in an array</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>130</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>99</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Egg Dropping Problem</t>
+          <t>find four elements that sum to a given value</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Painting the Fenceproblem</t>
+          <t>Implement Stack using Deque</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>389</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>437</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>find duplicate in an array of N+1 Integers</t>
+          <t>Maximum Length of Pair Chain</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rearrange characters in a string such that no two adjacent are same.</t>
+          <t>Remove Duplicates in a Un-sorted Linked List.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>326</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>93</v>
+        <v>293</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maximum and minimum of an array using minimum number of comparisons</t>
+          <t>Stack Permutations (Check if an array is stack permutation of other)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>93</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Search an element in a matriix</t>
+          <t>Minimum sum of absolute difference of pairs of two arrays</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143</v>
+        <v>402</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deletion from a Circular Linked List.</t>
+          <t>Maximum size square sub-matrix with all 1s</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>143</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Number of flips to make binary string alternate</t>
+          <t>Remove Invalid Parentheses</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trapping Rain water problem</t>
+          <t>Find a specific pair in matrix</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Trie</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Given a sequence of words, print all anagrams together</t>
+          <t>Check if all levels of two trees are anagrams or not.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>375</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Find Kth smallest element in a BST</t>
+          <t>Flatten a Linked List</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quicksort for Linked Lists.[Very Important]</t>
+          <t>find majority element</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>310</v>
+        <v>119</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+          <t>ROTI-Prata SPOJ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>310</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chinese Postman or Route Inspection</t>
+          <t>Longest alternating subsequence</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Implement "n" queue in an array</t>
+          <t>Find next greater number with same set of digits. [Very Very IMP]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>295</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>find four elements that sum to a given value</t>
+          <t>Search in a Maze</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>99</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>292</v>
+        <v>428</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Implement Stack using Deque</t>
+          <t>Palindrome PartitioningProblem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>292</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>437</v>
+        <v>140</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maximum Length of Pair Chain</t>
+          <t>Check if a linked list is a circular linked list.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>437</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Remove Duplicates in a Un-sorted Linked List.</t>
+          <t>Longest Palindromic Substring</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+          <t>Maximum sum of pairs with specific difference</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>293</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Minimum sum of absolute difference of pairs of two arrays</t>
+          <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>237</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402</v>
+        <v>172</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maximum size square sub-matrix with all 1s</t>
+          <t>Bottom View of a tree</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>402</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Remove Invalid Parentheses</t>
+          <t>Find the longest common subsequence between two strings.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>256</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Find a specific pair in matrix</t>
+          <t>EDIT Distance [Very Imp]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Check if all levels of two trees are anagrams or not.</t>
+          <t>Convert min heap to max heap</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>152</v>
+        <v>426</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Flatten a Linked List</t>
+          <t>Optimal Strategy for a Game</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>152</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>find majority element</t>
+          <t>Print all the permutations of the given string</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROTI-Prata SPOJ</t>
+          <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>119</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421</v>
+        <v>151</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Longest alternating subsequence</t>
+          <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>421</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+          <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Search in a Maze</t>
+          <t>Reverse a Doubly Linked list.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>333</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Trie</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Palindrome PartitioningProblem</t>
+          <t>Find shortest unique prefix for every word in a given list</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>428</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Check if a linked list is a circular linked list.</t>
+          <t>Median of 2 sorted arrays of different size</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Longest Palindromic Substring</t>
+          <t>Find if there is a path of more thank length from a source</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>420</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maximum sum of pairs with specific difference</t>
+          <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>403</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+          <t xml:space="preserve">Move all the negative elements to one side of the array </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bottom View of a tree</t>
+          <t>Find maximum sum possible equal sum of three stacks</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>172</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Find the longest common subsequence between two strings.</t>
+          <t>Searching in an array where adjacent differ by at most k</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>340</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EDIT Distance [Very Imp]</t>
+          <t xml:space="preserve">Implement Topological Sort </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Convert min heap to max heap</t>
+          <t>Find median in a row wise sorted matrix</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>325</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426</v>
+        <v>246</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Optimal Strategy for a Game</t>
+          <t>CHOCOLA –Chocolate</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>426</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Print all the permutations of the given string</t>
+          <t>Boundary traversal of a Binary tree</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+          <t>Reverse a Queue using recursion</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>239</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+          <t>Given "n" appointments, find the conflicting appointments</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+          <t>LRU Cache Implementationa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reverse a Doubly Linked list.</t>
+          <t xml:space="preserve"> Implement Stack from Scratch</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>144</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trie</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Find shortest unique prefix for every word in a given list</t>
+          <t>Find if there is any subarray with sum equal to 0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>373</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Median of 2 sorted arrays of different size</t>
+          <t>Smallest Subarray with sum greater than a given value</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363</v>
+        <v>260</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Find if there is a path of more thank length from a source</t>
+          <t>Subset Sum Problem</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>363</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+          <t>Cheapest Flights Within K Stops</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>124</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+          <t>Minimum no. of Jumps to reach end of an array</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Find maximum sum possible equal sum of three stacks</t>
+          <t>Largest rectangular Area in Histogram</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Searching in an array where adjacent differ by at most k</t>
+          <t>Bishu and Soldiers</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implement Topological Sort </t>
+          <t>Interleave the first half of the queue with second half</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Find median in a row wise sorted matrix</t>
+          <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CHOCOLA –Chocolate</t>
+          <t>Combinational Sum</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boundary traversal of a Binary tree</t>
+          <t>Minimum sum of two numbers formed from digits of an array</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>176</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reverse a Queue using recursion</t>
+          <t>Merge K sorted Linked list</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>298</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Given "n" appointments, find the conflicting appointments</t>
+          <t>Sort a LL of 0's, 1's and 2's</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LRU Cache Implementationa</t>
+          <t>Find the smallest window in a string containing all characters of another string</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>297</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Implement Stack from Scratch</t>
+          <t>**Minimum swaps required bring elements less equal K together</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>272</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Find if there is any subarray with sum equal to 0</t>
+          <t>Implement a Circular queue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Smallest Subarray with sum greater than a given value</t>
+          <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Subset Sum Problem</t>
+          <t>Count All Palindromic Subsequence in a given String</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>260</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cheapest Flights Within K Stops</t>
+          <t>Find first and last positions of an element in a sorted array</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>359</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Minimum no. of Jumps to reach end of an array</t>
+          <t>Maximum Length Chain of Pairs</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Largest rectangular Area in Histogram</t>
+          <t>Count All Palindromic Subsequence in a given String.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>288</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>107</v>
+        <v>397</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bishu and Soldiers</t>
+          <t>Count all subsequences having product less than K</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>107</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interleave the first half of the queue with second half</t>
+          <t>Kth smallest and largest element in an unsorted array</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+          <t>Check whether BST contains Dead end</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Combinational Sum</t>
+          <t>find a pair with a given difference</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>264</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Minimum sum of two numbers formed from digits of an array</t>
+          <t>Reverse the array</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Merge K sorted Linked list</t>
+          <t>Postorder Traversal of a tree both using recursion and Iteration</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sort a LL of 0's, 1's and 2's</t>
+          <t>Find LCA in a Binary tree</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Find the smallest window in a string containing all characters of another string</t>
+          <t>Print elements in sorted order using row-column wise sorted matrix</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>**Minimum swaps required bring elements less equal K together</t>
+          <t>Sort a Stack using recursion</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Implement a Circular queue</t>
+          <t>Minimum Cost to cut a board into squares</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>296</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+          <t>Smallest sum contiguous subarray</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>126</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>419</v>
+        <v>262</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Count All Palindromic Subsequence in a given String</t>
+          <t>Tug of War</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>419</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Find first and last positions of an element in a sorted array</t>
+          <t>Recursively print all sentences that can be formed from list of word lists</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Trie</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maximum Length Chain of Pairs</t>
+          <t>Word Break Problem | (Trie solution)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Count All Palindromic Subsequence in a given String.</t>
+          <t>Rearrange characters in a string such that no two adjacent are same</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Count all subsequences having product less than K</t>
+          <t>Coin game winner where every player has three choices</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kth smallest and largest element in an unsorted array</t>
+          <t>Graph ColouringProblem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Check whether BST contains Dead end</t>
+          <t>Kth smallest number again</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>215</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>find a pair with a given difference</t>
+          <t>Write a program to Detect loop in a linked list.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reverse the array</t>
+          <t>Maximum trains for which stoppage can be provided</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+          <t>Job Scheduling Algo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>168</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Find LCA in a Binary tree</t>
+          <t>Check if a Binary Tree is Heap</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>191</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Print elements in sorted order using row-column wise sorted matrix</t>
+          <t>Boyer Moore Algorithm for Pattern Searching.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sort a Stack using recursion</t>
+          <t>Making wired Connections</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>229</v>
+        <v>414</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Minimum Cost to cut a board into squares</t>
+          <t>Unbounded Knapsack (Repetition of items allowed)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>229</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Smallest sum contiguous subarray</t>
+          <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>413</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>262</v>
+        <v>410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tug of War</t>
+          <t>Count number of ways to reacha given score in a game</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>262</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Recursively print all sentences that can be formed from list of word lists</t>
+          <t>Queue based approach or first non-repeating character in a stream.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>88</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Trie</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Word Break Problem | (Trie solution)</t>
+          <t>Vertex Cover Problem</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rearrange characters in a string such that no two adjacent are same</t>
+          <t>Huffman Coding</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coin game winner where every player has three choices</t>
+          <t>Word Break Problem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Graph ColouringProblem</t>
+          <t>Maximize sum of consecutive differences in a circular array</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>351</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kth smallest number again</t>
+          <t>find common elements In 3 sorted arrays</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Write a program to Detect loop in a linked list.</t>
+          <t>Detect Negative cycle in a graph</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>127</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maximum trains for which stoppage can be provided</t>
+          <t>Find the K-th Permutation Sequence of first N natural numbers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>224</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Job Scheduling Algo</t>
+          <t>Intersection of two Sorted Linked List.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Check if a Binary Tree is Heap</t>
+          <t>Fina a value in a BST</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>322</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boyer Moore Algorithm for Pattern Searching.</t>
+          <t>Length of the Longest Valid Substring</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>70</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Making wired Connections</t>
+          <t>Find pivot element in a sorted array</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>337</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unbounded Knapsack (Repetition of items allowed)</t>
+          <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>414</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+          <t>Longest path in a Directed Acyclic Graph</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>125</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Trie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Count number of ways to reacha given score in a game</t>
+          <t>Construct a trie from scratch</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Queue based approach or first non-repeating character in a stream.</t>
+          <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Vertex Cover Problem</t>
+          <t>Find the triplet that sum to a given value</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>367</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Huffman Coding</t>
+          <t>Transform One String to Another using Minimum Number of Given Operation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>220</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>415</v>
+        <v>338</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Word Break Problem</t>
+          <t xml:space="preserve">word Ladder </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>415</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maximize sum of consecutive differences in a circular array</t>
+          <t>Convert Binary tree into Doubly Linked List</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>236</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>find common elements In 3 sorted arrays</t>
+          <t>Count triplet with sum smaller than a given value</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Detect Negative cycle in a graph</t>
+          <t>Count set bits in an integer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>356</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+          <t>Smallest range in “K” Lists</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Intersection of two Sorted Linked List.</t>
+          <t>DoubleHelix SPOJ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fina a value in a BST</t>
+          <t>Print all Subsequences of a string.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>196</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Length of the Longest Valid Substring</t>
+          <t>Recursively remove all adjacent duplicates</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>289</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>110</v>
+        <v>422</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Find pivot element in a sorted array</t>
+          <t>Weighted Job Scheduling</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>110</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>216</v>
+        <v>395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+          <t>LCS (Longest Common Subsequence) of three strings</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>216</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Longest path in a Directed Acyclic Graph</t>
+          <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>357</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372</v>
+        <v>238</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trie</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Construct a trie from scratch</t>
+          <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>372</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342</v>
+        <v>233</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+          <t>Maximize array sum after K negations</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>342</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Find the triplet that sum to a given value</t>
+          <t>* Maximum profit by buying and selling a share atmost twice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Transform One String to Another using Minimum Number of Given Operation</t>
+          <t>Longest Common Prefix</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">word Ladder </t>
+          <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>178</v>
+        <v>409</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Convert Binary tree into Doubly Linked List</t>
+          <t>Longest Common Substring</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>178</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Count triplet with sum smaller than a given value</t>
+          <t>Diagnol Traversal of a Binary tree</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438</v>
+        <v>92</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Count set bits in an integer</t>
+          <t>square root of an integer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>438</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Smallest range in “K” Lists</t>
+          <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>376</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Trie</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DoubleHelix SPOJ</t>
+          <t>Implement a Phone Directory</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>120</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Print all Subsequences of a string.</t>
+          <t>Book Allocation Problem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Recursively remove all adjacent duplicates</t>
+          <t>Sudoku Solver</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>422</v>
+        <v>100</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Weighted Job Scheduling</t>
+          <t>maximum sum such that no 2 elements are adjacent</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>422</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>395</v>
+        <v>49</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LCS (Longest Common Subsequence) of three strings</t>
+          <t>Why strings are immutable in Java?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>395</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+          <t>merge 2 sorted arrays</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+          <t>Find the no. of Isalnds</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>238</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maximize array sum after K negations</t>
+          <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>233</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* Maximum profit by buying and selling a share atmost twice</t>
+          <t>Job SequencingProblem</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Longest Common Prefix</t>
+          <t>Search in a rotated sorted array</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+          <t xml:space="preserve">Implement BFS algorithm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Longest Common Substring</t>
+          <t>Longest Common Subsequence</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diagnol Traversal of a Binary tree</t>
+          <t>String matching where one string contains wildcard characters</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>175</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>square root of an integer</t>
+          <t>Find a Fixed Point (Value equal to index) in a given array</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+          <t>Reverse a String using Stack</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>344</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Trie</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Implement a Phone Directory</t>
+          <t>Find Duplicate characters in a string</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>376</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Book Allocation Problem</t>
+          <t>flood fill algo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>113</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sudoku Solver</t>
+          <t>Multiply 2 no. represented by LL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>257</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>maximum sum such that no 2 elements are adjacent</t>
+          <t>Find maximum meetings in one room</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Why strings are immutable in Java?</t>
+          <t>Minimum number of swaps for bracket balancing.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>merge 2 sorted arrays</t>
+          <t>Chocolate Distribution Problem</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>102</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>343</v>
+        <v>128</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Find the no. of Isalnds</t>
+          <t>Write a program to Delete loop in a linked list.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>435</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+          <t>Maximum profit by buying and selling a share at most k times</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Job SequencingProblem</t>
+          <t>Rearrange characters in a string such that no two adjacent are same</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Search in a rotated sorted array</t>
+          <t>Printing all solutions in N-Queen Problem</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>91</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implement BFS algorithm </t>
+          <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>329</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Longest Common Subsequence</t>
+          <t>Next Smaller Element</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>391</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>String matching where one string contains wildcard characters</t>
+          <t>Check if a tree is balanced or not</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>84</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Find a Fixed Point (Value equal to index) in a given array</t>
+          <t>Convert Binary tree into Sum tree</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reverse a String using Stack</t>
+          <t>Word break Problem[ Very Imp]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>278</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Find Duplicate characters in a string</t>
+          <t>Leetcode- reorganize strings</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>flood fill algo</t>
+          <t>Check if 2 trees are mirror or not</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>335</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Multiply 2 no. represented by LL</t>
+          <t>Water Jug problem using BFS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Find maximum meetings in one room</t>
+          <t>Activity Selection Problem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Minimum number of swaps for bracket balancing.</t>
+          <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>241</v>
+        <v>439</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chocolate Distribution Problem</t>
+          <t>Find the two non-repeating elements in an array of repeating elements</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>241</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128</v>
+        <v>424</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Write a program to Delete loop in a linked list.</t>
+          <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>128</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maximum profit by buying and selling a share at most k times</t>
+          <t>find the middle element of a stack</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>435</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rearrange characters in a string such that no two adjacent are same</t>
+          <t>Picking Up Chicks</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Printing all solutions in N-Queen Problem</t>
+          <t>Find the first non-repeating character from a stream of characters</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>254</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>412</v>
+        <v>148</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+          <t>Rotate DoublyLinked list by N nodes.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>412</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>309</v>
+        <v>434</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Next Smaller Element</t>
+          <t>Maximum sum rectangle in a 2D matrix</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>309</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Check if a tree is balanced or not</t>
+          <t>Construct Binary Tree from String with Bracket Representation</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Convert Binary tree into Sum tree</t>
+          <t>The Knight’s tour problem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>179</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Word break Problem[ Very Imp]</t>
+          <t>Three way partitioning of an array around a given value</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leetcode- reorganize strings</t>
+          <t>Find the median of BST in O(n) time and O(1) space</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>318</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Check if 2 trees are mirror or not</t>
+          <t>Construct Binary tree from Inorder and preorder traversal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362</v>
+        <v>265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Water Jug problem using BFS</t>
+          <t>Find Maximum number possible by doing at-most K swaps</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>362</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Activity Selection Problem</t>
+          <t>Program for n’th node from the end of a Linked List</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>218</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>366</v>
+        <v>171</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+          <t>Top View of a tree</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>366</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>439</v>
+        <v>150</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Find the two non-repeating elements in an array of repeating elements</t>
+          <t>Can we reverse a linked list in less than O(n) ?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>439</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+          <t>Boolean Parenthesization Problem</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>find the middle element of a stack</t>
+          <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Picking Up Chicks</t>
+          <t>Painters Partition Problem:</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>245</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Find the first non-repeating character from a stream of characters</t>
+          <t>Implement 2 stack in an array</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>160</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rotate DoublyLinked list by N nodes.</t>
+          <t>Rotate matrix by 90 degrees</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maximum sum rectangle in a 2D matrix</t>
+          <t>Minimum removals from array to make max –min &lt;= K</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Construct Binary Tree from String with Bracket Representation</t>
+          <t>Maximize the sum of arr[i]*i</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>177</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Knight’s tour problem</t>
+          <t>*Findthe inversion count</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>261</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Three way partitioning of an array around a given value</t>
+          <t>Minimum time required to rot all oranges</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>210</v>
+        <v>417</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Find the median of BST in O(n) time and O(1) space</t>
+          <t>Partition problem</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>210</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Construct Binary tree from Inorder and preorder traversal</t>
+          <t>Spiral traversal on a Matrix</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Find Maximum number possible by doing at-most K swaps</t>
+          <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Program for n’th node from the end of a Linked List</t>
+          <t>Expression contains redundant bracket or not</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>171</v>
+        <v>378</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Top View of a tree</t>
+          <t>Coin ChangeProblem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>171</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Can we reverse a linked list in less than O(n) ?</t>
+          <t>level order traversal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boolean Parenthesization Problem</t>
+          <t xml:space="preserve">Detect Cycle in Directed Graph using BFS/DFS Algo </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>431</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+          <t>Find LCA  of 2 nodes in a BST</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>284</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Painters Partition Problem:</t>
+          <t>Minimum characters to be added at front to make string palindrome</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Implement 2 stack in an array</t>
+          <t>Find the next Greater element</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>112</v>
+        <v>358</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aggressive cows</t>
+          <t>Journey to the Moon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>112</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Knapsack Problem</t>
+          <t xml:space="preserve">Check if a tree is a BST or not </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>379</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Count of number of given string in 2D character array</t>
+          <t>Convert BST to Min Heap</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>68</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>minimum no. of swaps required to sort the array</t>
+          <t>Missing Number in AP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Common elements in all rows of a given matrix</t>
+          <t>Check preorder is valid or not</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Count total set bits in all numbers from 1 to n</t>
+          <t>Find if a string is interleaved of two other strings</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Find the minimum and maximum amount to buy all N candies</t>
+          <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>227</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
+          <t>Segregate even and odd nodes in a Linked List</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Write a Program to Move the last element to Front in a Linked List.</t>
+          <t>Find bridge in a graph</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>132</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gold Mine Problem</t>
+          <t>Preorder Traversal of a tree both using recursion and Iteration</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>387</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+          <t>Merge “K” sorted arrays. [ IMP ]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Find whether an array is a subset of another array</t>
+          <t>Check whether a String is Palindrome or not</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Find Longest Recurring Subsequence in String</t>
+          <t>M-ColouringProblem</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Print all palindromic partitions of a string</t>
+          <t>Find shortest safe route in a path with landmines</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Find Largest subtree sum in a tree</t>
+          <t>Populate Inorder successor of all nodes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358</v>
+        <v>195</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Journey to the Moon</t>
+          <t>Tree Isomorphism Problem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>358</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check if a tree is a BST or not </t>
+          <t>DIEHARD -DIE HARD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Convert BST to Min Heap</t>
+          <t>Check the expression has valid or Balanced parenthesis or not.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>324</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116</v>
+        <v>406</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Missing Number in AP</t>
+          <t>Minimum number of jumps to reach end</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>116</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Check preorder is valid or not</t>
+          <t>Optimum location of point to minimize total distance</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>214</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Find if a string is interleaved of two other strings</t>
+          <t>Median in a stream of Integers</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>436</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+          <t>Binomial CoefficientProblem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Segregate even and odd nodes in a Linked List</t>
+          <t>Sort an Array using heap. (HeapSort)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>158</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>353</v>
+        <v>206</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Find bridge in a graph</t>
+          <t>Merge two BST [ V.V.V&gt;IMP ]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>353</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>167</v>
+        <v>429</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+          <t>Word Wrap Problem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>167</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Merge “K” sorted arrays. [ IMP ]</t>
+          <t>Water Connection Problem</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>315</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Check whether a String is Palindrome or not</t>
+          <t>Reverse Level Order traversal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M-ColouringProblem</t>
+          <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>364</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Find shortest safe route in a path with landmines</t>
+          <t>Reverse the first “K” elements of a queue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Populate Inorder successor of all nodes</t>
+          <t>Evaluation of Postfix expression</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tree Isomorphism Problem</t>
+          <t>First negative integer in every window of size “k”</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>195</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DIEHARD -DIE HARD</t>
+          <t>Subset Sums</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Check the expression has valid or Balanced parenthesis or not.</t>
+          <t>Water Jug problem using BFS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>277</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Minimum number of jumps to reach end</t>
+          <t>Maximum of all subarrays of size k.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>406</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Optimum location of point to minimize total distance</t>
+          <t>Implement Bellman Ford Algorithm</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>94</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Median in a stream of Integers</t>
+          <t>find Largest sum contiguous Subarray [V. IMP]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>321</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Binomial CoefficientProblem</t>
+          <t>Rasta and Kheshtak</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>380</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sort an Array using heap. (HeapSort)</t>
+          <t>Smallest subset with sum greater than all other elements</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>311</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>206</v>
+        <v>350</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+          <t>Travelling Salesman Problem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>206</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Word Wrap Problem</t>
+          <t>Permutation CoefficientProblem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>429</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Water Connection Problem</t>
+          <t>Find the middle Element of a linked list.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>221</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Reverse Level Order traversal</t>
+          <t>Smallest number with atleastn trailing zeroes infactorial</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+          <t>Delete nodes which have a greater value on right side</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Reverse the first “K” elements of a queue</t>
+          <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>299</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Evaluation of Postfix expression</t>
+          <t>Maximum subsequence sum such that no three are consecutive</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>283</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>First negative integer in every window of size “k”</t>
+          <t>Implement "N" stacks in an Array</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>304</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Subset Sums</t>
+          <t xml:space="preserve">Implement Queue using Stack  </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>121</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Water Jug problem using BFS</t>
+          <t>Implement Stack using Queue</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>361</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maximum of all subarrays of size k.</t>
+          <t>Merge 2 sorted arrays without using Extra space.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>312</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Implement Bellman Ford Algorithm</t>
+          <t>Word Wrap Problem [VERY IMP].</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>348</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>find Largest sum contiguous Subarray [V. IMP]</t>
+          <t>Greedy Algorithm to find Minimum number of Coins</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rasta and Kheshtak</t>
+          <t>Add two numbers represented by linked lists.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Smallest subset with sum greater than all other elements</t>
+          <t>Zig-Zag traversal of a binary tree</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>240</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350</v>
+        <v>103</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Travelling Salesman Problem</t>
+          <t>print all subarrays with 0 sum</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>350</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Permutation CoefficientProblem</t>
+          <t>Diameter of a tree</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>381</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Find the middle Element of a linked list.</t>
+          <t>Sort array according to count of set bits</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117</v>
+        <v>349</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Smallest number with atleastn trailing zeroes infactorial</t>
+          <t>Implement Floyd warshallAlgorithm</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>117</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Delete nodes which have a greater value on right side</t>
+          <t>Count BST ndoes that lie in a given range</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>157</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+          <t>Minimum Step by Knight</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>399</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maximum subsequence sum such that no three are consecutive</t>
+          <t>Write a program to cyclically rotate an array by one.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>399</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Implement "N" stacks in an Array</t>
+          <t>Find smallest number with given number of digits and sum of digits</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implement Queue using Stack  </t>
+          <t>Kadane's Algo [V.V.V.V.V IMP]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>294</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Implement Stack using Queue</t>
+          <t>Maximum difference of zeros and ones in binary string</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>291</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Merge 2 sorted arrays without using Extra space.</t>
+          <t>Reverse a stack using recursion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Trie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Word Wrap Problem [VERY IMP].</t>
+          <t>Print unique rows in a given boolean matrix</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>58</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>223</v>
+        <v>433</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Greedy Algorithm to find Minimum number of Coins</t>
+          <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>223</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Add two numbers represented by linked lists.</t>
+          <t>Median of 2 sorted arrays of equal size</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zig-Zag traversal of a binary tree</t>
+          <t>Minimum Cost of ropes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>print all subarrays with 0 sum</t>
+          <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Diameter of a tree</t>
+          <t>Check if two given strings are isomorphic to each other</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>164</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sort array according to count of set bits</t>
+          <t>Check if given graph is tree or not.  [ IMP ]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>105</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349</v>
+        <v>203</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Implement Floyd warshallAlgorithm</t>
+          <t>Construct BST from preorder traversal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>349</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Count BST ndoes that lie in a given range</t>
+          <t>Maximum product subset of an array</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Minimum Step by Knight</t>
+          <t>Arithmetic Expression evaluation</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Write a program to cyclically rotate an array by one.</t>
+          <t>Copy set bits in a range</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Find smallest number with given number of digits and sum of digits</t>
+          <t>Product array Puzzle</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+          <t>Edit Distance</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>405</v>
+        <v>183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maximum difference of zeros and ones in binary string</t>
+          <t>Check if all leaf nodes are at same level or not</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>405</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reverse a stack using recursion</t>
+          <t>Function to find Number of customers who could not get a computer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>285</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>377</v>
+        <v>66</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trie</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Print unique rows in a given boolean matrix</t>
+          <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>377</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>433</v>
+        <v>184</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+          <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>433</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Median of 2 sorted arrays of equal size</t>
+          <t>Next Permutation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Minimum Cost of ropes</t>
+          <t>Search a Word in a 2D Grid of characters.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>249</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>142</v>
+        <v>443</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+          <t>Find position of the only set bit</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>142</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Check if two given strings are isomorphic to each other</t>
+          <t>The celebrity Problem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>87</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Check if given graph is tree or not.  [ IMP ]</t>
+          <t>Clone a graph</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>187</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>203</v>
+        <v>442</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Binary Search Trees</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Construct BST from preorder traversal</t>
+          <t>Program to find whether a no is power of two</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maximum product subset of an array</t>
+          <t>Oliver and the Game</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>232</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arithmetic Expression evaluation</t>
+          <t>Two Clique Problem</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>282</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>444</v>
+        <v>313</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Heap</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Copy set bits in a range</t>
+          <t>“k” largest element in an array</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>444</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Product array Puzzle</t>
+          <t>Find the repeating and the missing</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Edit Distance</t>
+          <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>384</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Check if all leaf nodes are at same level or not</t>
+          <t>Word Break Problem using Backtracking</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>183</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Function to find Number of customers who could not get a computer</t>
+          <t>Find row with maximum no. of 1's</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>LinkedList</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+          <t>Find pairs with a given sum in a DLL.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+          <t>Program to generate all possible valid IP addresses from given  string.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Array</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Next Permutation</t>
+          <t>Find if there is a path of more than k length from a source</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Search a Word in a 2D Grid of characters.</t>
+          <t>GERGOVIA -Wine trading in Gergovia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>69</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Find position of the only set bit</t>
+          <t>Assembly Line SchedulingProblem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>443</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The celebrity Problem</t>
+          <t>Merge Overlapping Intervals</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Clone a graph</t>
+          <t>Dijkstra algo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bit Manipulation</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Program to find whether a no is power of two</t>
+          <t>Longest Repeated Subsequence</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>442</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Binary Trees</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Oliver and the Game</t>
+          <t>Mirror of a tree</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>360</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>371</v>
+        <v>123</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Searching &amp; Sorting</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Two Clique Problem</t>
+          <t>*Implement Merge-sort in-place</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>371</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Heap</t>
+          <t>Greedy</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>“k” largest element in an array</t>
+          <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>313</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL15.xlsx
+++ b/FINAL15.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Find the repeating and the missing</t>
+          <t>(bdia logic)Write a Code to check whether one string is a rotation of another</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>332</v>
+        <v>33</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
+          <t>Minimum no. of operations required to make an array palindrome</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>332</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Word Break Problem using Backtracking</t>
+          <t>Rat in a maze Problem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>String</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Find row with maximum no. of 1's</t>
+          <t>KMP Algo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>145</v>
+        <v>446</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LinkedList</t>
+          <t>Bit Manipulation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Find pairs with a given sum in a DLL.</t>
+          <t>Calculate square of a number without using *, / and pow()</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>145</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Program to generate all possible valid IP addresses from given  string.</t>
+          <t xml:space="preserve">Implement DFS Algo </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BackTracking</t>
+          <t>Stacks &amp; Queues</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Find if there is a path of more than k length from a source</t>
+          <t>Distance of nearest cell having 1 in a binary matrix</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERGOVIA -Wine trading in Gergovia</t>
+          <t>Minimum Platforms Problem</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -673,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>388</v>
+        <v>269</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Assembly Line SchedulingProblem</t>
+          <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11">
@@ -699,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stacks &amp; Queues</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Merge Overlapping Intervals</t>
+          <t>Convert a normal BST into a Balanced BST</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>287</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graph</t>
+          <t>BackTracking</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dijkstra algo</t>
+          <t xml:space="preserve">Print all permutations of a string </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>339</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -751,16 +751,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>392</v>
+        <v>199</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dynamic Programming</t>
+          <t>Binary Search Trees</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Longest Repeated Subsequence</t>
+          <t>Find inorder successor and inorder predecessor in a BST</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>392</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14">
@@ -777,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Binary Trees</t>
+          <t>Graph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mirror of a tree</t>
+          <t>Number of Triangles in a Directed and Undirected Graph</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>165</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123</v>
+        <v>432</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Searching &amp; Sorting</t>
+          <t>Dynamic Programming</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>*Implement Merge-sort in-place</t>
+          <t>Largest rectangular sub-matrix whose sum is 0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>123</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16">
@@ -829,16 +829,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Array</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+          <t>Merge Intervals</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>226</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
